--- a/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
+++ b/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="149">
   <si>
     <t>가축 종류</t>
   </si>
@@ -183,9 +183,6 @@
     <t>340g</t>
   </si>
   <si>
-    <t>60g</t>
-  </si>
-  <si>
     <t>260g</t>
   </si>
   <si>
@@ -501,6 +498,14 @@
   </si>
   <si>
     <t>8마리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>600g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -627,9 +632,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1039,16 +1041,16 @@
         <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="15">
+        <v>128</v>
+      </c>
+      <c r="D2" s="14">
         <v>201990</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="8">
         <v>44228</v>
@@ -1056,31 +1058,31 @@
       <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="I2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="11">
         <v>44105</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>38</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <v>44446</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -1091,18 +1093,18 @@
         <v>27</v>
       </c>
       <c r="U2" s="4"/>
-      <c r="V2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="10">
+      <c r="V2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" s="8">
         <v>44537</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="8">
         <v>44537</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA2" s="4"/>
     </row>
@@ -1114,16 +1116,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="15">
+        <v>128</v>
+      </c>
+      <c r="D3" s="14">
         <v>201990</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="8">
         <v>44228</v>
@@ -1131,31 +1133,31 @@
       <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="I3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="11">
         <v>44106</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>38.5</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>44446</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -1166,22 +1168,22 @@
         <v>27</v>
       </c>
       <c r="U3" s="4"/>
-      <c r="V3" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W3" s="10">
+      <c r="V3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="8">
         <v>44538</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="8">
         <v>44537</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
@@ -1189,16 +1191,16 @@
         <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="15">
+        <v>128</v>
+      </c>
+      <c r="D4" s="14">
         <v>201990</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="8">
         <v>44228</v>
@@ -1206,31 +1208,31 @@
       <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="I4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="11">
         <v>44107</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>38.5</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>44446</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -1241,22 +1243,22 @@
         <v>27</v>
       </c>
       <c r="U4" s="4"/>
-      <c r="V4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W4" s="10">
+      <c r="V4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" s="8">
         <v>44539</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="8">
         <v>44537</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1264,50 +1266,48 @@
         <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="15">
+        <v>128</v>
+      </c>
+      <c r="D5" s="14">
         <v>201990</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" s="8">
         <v>44228</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="12">
+        <v>148</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="11">
         <v>44108</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>38</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q5" s="11"/>
       <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1316,22 +1316,16 @@
         <v>27</v>
       </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W5" s="10">
-        <v>44540</v>
-      </c>
-      <c r="X5" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1339,16 +1333,16 @@
         <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="15">
+        <v>129</v>
+      </c>
+      <c r="D6" s="14">
         <v>201990</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="8">
         <v>44228</v>
@@ -1356,31 +1350,31 @@
       <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="I6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="11">
         <v>44109</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>38.6</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>44458</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -1391,22 +1385,22 @@
         <v>27</v>
       </c>
       <c r="U6" s="4"/>
-      <c r="V6" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W6" s="10">
+      <c r="V6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="8">
         <v>44545</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="8">
         <v>44549</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
@@ -1414,16 +1408,16 @@
         <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="15">
+        <v>129</v>
+      </c>
+      <c r="D7" s="14">
         <v>201990</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="8">
         <v>44228</v>
@@ -1431,31 +1425,31 @@
       <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="I7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="11">
         <v>44110</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>38</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>44458</v>
       </c>
       <c r="R7" s="3" t="s">
@@ -1466,22 +1460,22 @@
         <v>27</v>
       </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W7" s="10">
+      <c r="V7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" s="8">
         <v>44546</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="8">
         <v>44549</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -1489,16 +1483,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="15">
+        <v>129</v>
+      </c>
+      <c r="D8" s="14">
         <v>201990</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="8">
         <v>44228</v>
@@ -1506,31 +1500,31 @@
       <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="I8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="11">
         <v>44111</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>38.5</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>44458</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -1541,22 +1535,22 @@
         <v>27</v>
       </c>
       <c r="U8" s="4"/>
-      <c r="V8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W8" s="10">
+      <c r="V8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" s="8">
         <v>44547</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="8">
         <v>44549</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1564,16 +1558,16 @@
         <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="15">
+        <v>129</v>
+      </c>
+      <c r="D9" s="14">
         <v>201990</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="8">
         <v>44228</v>
@@ -1581,31 +1575,31 @@
       <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="I9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="11">
         <v>44112</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>38.5</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>44458</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1616,22 +1610,22 @@
         <v>27</v>
       </c>
       <c r="U9" s="4"/>
-      <c r="V9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W9" s="10">
+      <c r="V9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W9" s="8">
         <v>44549</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="8">
         <v>44549</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1639,16 +1633,16 @@
         <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="15">
+        <v>129</v>
+      </c>
+      <c r="D10" s="14">
         <v>201990</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="8">
         <v>44228</v>
@@ -1656,31 +1650,31 @@
       <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="12">
+      <c r="J10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="11">
         <v>44113</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="L10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="10">
         <v>38</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>44457</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -1691,22 +1685,22 @@
         <v>27</v>
       </c>
       <c r="U10" s="4"/>
-      <c r="V10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W10" s="10">
+      <c r="V10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" s="8">
         <v>44548</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="8">
         <v>44548</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
@@ -1714,16 +1708,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="15">
+        <v>128</v>
+      </c>
+      <c r="D11" s="14">
         <v>201990</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="8">
         <v>44228</v>
@@ -1731,31 +1725,31 @@
       <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="I11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="11">
         <v>44114</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>38.6</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <v>44457</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -1766,22 +1760,22 @@
         <v>27</v>
       </c>
       <c r="U11" s="4"/>
-      <c r="V11" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W11" s="10">
+      <c r="V11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W11" s="8">
         <v>44548</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="8">
         <v>44548</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1789,16 +1783,16 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="15">
+        <v>128</v>
+      </c>
+      <c r="D12" s="14">
         <v>201990</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="8">
         <v>44228</v>
@@ -1806,31 +1800,31 @@
       <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="I12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="11">
         <v>44115</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>38</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <v>44457</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -1841,22 +1835,22 @@
         <v>27</v>
       </c>
       <c r="U12" s="4"/>
-      <c r="V12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W12" s="10">
+      <c r="V12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W12" s="8">
         <v>44547</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="8">
         <v>44548</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -1864,16 +1858,16 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="15">
+        <v>128</v>
+      </c>
+      <c r="D13" s="14">
         <v>201990</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="8">
         <v>44228</v>
@@ -1881,31 +1875,31 @@
       <c r="H13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="I13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="11">
         <v>44116</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="11" t="s">
+      <c r="L13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>38.5</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>44457</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -1916,22 +1910,22 @@
         <v>27</v>
       </c>
       <c r="U13" s="4"/>
-      <c r="V13" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W13" s="10">
+      <c r="V13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W13" s="8">
         <v>44548</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="8">
         <v>44548</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1939,50 +1933,48 @@
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="15">
+        <v>128</v>
+      </c>
+      <c r="D14" s="14">
         <v>201990</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="8">
         <v>44228</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K14" s="12">
+        <v>148</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="11">
         <v>44117</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>38.5</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="12">
-        <v>44453</v>
-      </c>
+      <c r="Q14" s="11"/>
       <c r="R14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1991,22 +1983,16 @@
         <v>27</v>
       </c>
       <c r="U14" s="4"/>
-      <c r="V14" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W14" s="10">
-        <v>44544</v>
-      </c>
-      <c r="X14" s="10">
-        <v>44544</v>
-      </c>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2014,16 +2000,16 @@
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="15">
+        <v>128</v>
+      </c>
+      <c r="D15" s="14">
         <v>201990</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="8">
         <v>44228</v>
@@ -2031,31 +2017,31 @@
       <c r="H15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="I15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="11">
         <v>44118</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="L15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="10">
         <v>38</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>44453</v>
       </c>
       <c r="R15" s="3" t="s">
@@ -2066,22 +2052,22 @@
         <v>27</v>
       </c>
       <c r="U15" s="4"/>
-      <c r="V15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W15" s="10">
+      <c r="V15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W15" s="8">
         <v>44545</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="8">
         <v>44544</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -2089,16 +2075,16 @@
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="15">
+        <v>128</v>
+      </c>
+      <c r="D16" s="14">
         <v>201990</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="8">
         <v>44228</v>
@@ -2106,31 +2092,31 @@
       <c r="H16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="I16" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="11">
         <v>44119</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>38.6</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>44453</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -2141,22 +2127,22 @@
         <v>27</v>
       </c>
       <c r="U16" s="4"/>
-      <c r="V16" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W16" s="10">
+      <c r="V16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="8">
         <v>44543</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="8">
         <v>44544</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2164,50 +2150,48 @@
         <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="15">
+        <v>128</v>
+      </c>
+      <c r="D17" s="14">
         <v>201990</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="8">
         <v>44228</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="12">
+        <v>148</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="11">
         <v>44120</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="11" t="s">
+      <c r="L17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>38</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" s="12">
-        <v>44453</v>
-      </c>
+      <c r="Q17" s="11"/>
       <c r="R17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2216,22 +2200,16 @@
         <v>27</v>
       </c>
       <c r="U17" s="4"/>
-      <c r="V17" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W17" s="10">
-        <v>44544</v>
-      </c>
-      <c r="X17" s="10">
-        <v>44544</v>
-      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA17" s="4"/>
     </row>
-    <row r="18" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2239,16 +2217,16 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="15">
+        <v>128</v>
+      </c>
+      <c r="D18" s="14">
         <v>201990</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="8">
         <v>44228</v>
@@ -2256,31 +2234,31 @@
       <c r="H18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="12">
+      <c r="J18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="11">
         <v>44121</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="L18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="10">
         <v>38.5</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <v>44441</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -2291,22 +2269,22 @@
         <v>27</v>
       </c>
       <c r="U18" s="4"/>
-      <c r="V18" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W18" s="10">
+      <c r="V18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="8">
         <v>44532</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="8">
         <v>44532</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2314,16 +2292,16 @@
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="15">
+        <v>128</v>
+      </c>
+      <c r="D19" s="14">
         <v>201990</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="8">
         <v>44228</v>
@@ -2331,31 +2309,31 @@
       <c r="H19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="I19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="11">
         <v>44122</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>38.5</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <v>44441</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -2366,22 +2344,22 @@
         <v>27</v>
       </c>
       <c r="U19" s="4"/>
-      <c r="V19" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W19" s="10">
+      <c r="V19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W19" s="8">
         <v>44532</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="8">
         <v>44532</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -2389,50 +2367,48 @@
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="15">
+        <v>128</v>
+      </c>
+      <c r="D20" s="14">
         <v>201990</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="8">
         <v>44228</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="12">
+        <v>148</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="11">
         <v>44123</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="11" t="s">
+      <c r="L20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>38</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="12">
-        <v>44441</v>
-      </c>
+      <c r="Q20" s="11"/>
       <c r="R20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2441,22 +2417,16 @@
         <v>27</v>
       </c>
       <c r="U20" s="4"/>
-      <c r="V20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W20" s="10">
-        <v>44544</v>
-      </c>
-      <c r="X20" s="10">
-        <v>44532</v>
-      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -2464,16 +2434,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="15">
+        <v>129</v>
+      </c>
+      <c r="D21" s="14">
         <v>201990</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="8">
         <v>44228</v>
@@ -2481,31 +2451,31 @@
       <c r="H21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="I21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="11">
         <v>44124</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="11" t="s">
+      <c r="L21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <v>38.6</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>44441</v>
       </c>
       <c r="R21" s="3" t="s">
@@ -2516,22 +2486,22 @@
         <v>27</v>
       </c>
       <c r="U21" s="4"/>
-      <c r="V21" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W21" s="10">
+      <c r="V21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W21" s="8">
         <v>44532</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="8">
         <v>44532</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -2539,16 +2509,16 @@
         <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="15">
+        <v>129</v>
+      </c>
+      <c r="D22" s="14">
         <v>201990</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="8">
         <v>44228</v>
@@ -2556,31 +2526,31 @@
       <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="I22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="11">
         <v>44125</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="L22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="10">
         <v>38</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <v>44445</v>
       </c>
       <c r="R22" s="3" t="s">
@@ -2591,22 +2561,22 @@
         <v>27</v>
       </c>
       <c r="U22" s="4"/>
-      <c r="V22" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W22" s="10">
+      <c r="V22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="8">
         <v>44545</v>
       </c>
-      <c r="X22" s="10">
+      <c r="X22" s="8">
         <v>44536</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -2614,16 +2584,16 @@
         <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="15">
+        <v>129</v>
+      </c>
+      <c r="D23" s="14">
         <v>201990</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="8">
         <v>44317</v>
@@ -2631,31 +2601,31 @@
       <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="I23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="11">
         <v>44126</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="11" t="s">
+      <c r="L23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="10">
         <v>38.5</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <v>44445</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -2666,22 +2636,22 @@
         <v>27</v>
       </c>
       <c r="U23" s="4"/>
-      <c r="V23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W23" s="10">
+      <c r="V23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W23" s="8">
         <v>44535</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="8">
         <v>44536</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2689,16 +2659,16 @@
         <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="15">
+        <v>129</v>
+      </c>
+      <c r="D24" s="14">
         <v>201990</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="8">
         <v>44317</v>
@@ -2706,31 +2676,31 @@
       <c r="H24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="12">
+      <c r="I24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="11">
         <v>44127</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>38.5</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="11">
         <v>44445</v>
       </c>
       <c r="R24" s="3" t="s">
@@ -2741,22 +2711,22 @@
         <v>27</v>
       </c>
       <c r="U24" s="4"/>
-      <c r="V24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W24" s="10">
+      <c r="V24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W24" s="8">
         <v>44536</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="8">
         <v>44536</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -2764,16 +2734,16 @@
         <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="15">
+        <v>129</v>
+      </c>
+      <c r="D25" s="14">
         <v>201990</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="8">
         <v>44317</v>
@@ -2781,31 +2751,31 @@
       <c r="H25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="12">
+      <c r="I25" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="11">
         <v>44128</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="11">
+      <c r="L25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="10">
         <v>38</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <v>44445</v>
       </c>
       <c r="R25" s="3" t="s">
@@ -2816,22 +2786,22 @@
         <v>27</v>
       </c>
       <c r="U25" s="4"/>
-      <c r="V25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W25" s="10">
+      <c r="V25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W25" s="8">
         <v>44536</v>
       </c>
-      <c r="X25" s="10">
+      <c r="X25" s="8">
         <v>44536</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -2839,16 +2809,16 @@
         <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="15">
+        <v>129</v>
+      </c>
+      <c r="D26" s="14">
         <v>201990</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="8">
         <v>44317</v>
@@ -2856,31 +2826,31 @@
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="12">
+      <c r="I26" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="11">
         <v>44129</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="11" t="s">
+      <c r="L26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>38.6</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="11">
         <v>44446</v>
       </c>
       <c r="R26" s="3" t="s">
@@ -2891,22 +2861,22 @@
         <v>27</v>
       </c>
       <c r="U26" s="4"/>
-      <c r="V26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W26" s="10">
+      <c r="V26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W26" s="8">
         <v>44537</v>
       </c>
-      <c r="X26" s="10">
+      <c r="X26" s="8">
         <v>44537</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -2914,50 +2884,48 @@
         <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="15">
+        <v>129</v>
+      </c>
+      <c r="D27" s="14">
         <v>201990</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="8">
         <v>44317</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="12">
+        <v>148</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="11">
         <v>44130</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="11" t="s">
+      <c r="L27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="10">
         <v>38</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q27" s="11"/>
       <c r="R27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2966,22 +2934,16 @@
         <v>27</v>
       </c>
       <c r="U27" s="4"/>
-      <c r="V27" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W27" s="10">
-        <v>44537</v>
-      </c>
-      <c r="X27" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -2989,16 +2951,16 @@
         <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="15">
+        <v>129</v>
+      </c>
+      <c r="D28" s="14">
         <v>201990</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="8">
         <v>44317</v>
@@ -3006,31 +2968,31 @@
       <c r="H28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="12">
+      <c r="J28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="11">
         <v>44131</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="11">
+      <c r="L28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="10">
         <v>38.5</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="11">
         <v>44446</v>
       </c>
       <c r="R28" s="3" t="s">
@@ -3041,18 +3003,18 @@
         <v>27</v>
       </c>
       <c r="U28" s="4"/>
-      <c r="V28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W28" s="10">
+      <c r="V28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W28" s="8">
         <v>44535</v>
       </c>
-      <c r="X28" s="10">
+      <c r="X28" s="8">
         <v>44537</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
@@ -3064,16 +3026,16 @@
         <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="15">
+        <v>129</v>
+      </c>
+      <c r="D29" s="14">
         <v>201990</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="8">
         <v>44317</v>
@@ -3081,31 +3043,31 @@
       <c r="H29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" s="12">
+      <c r="I29" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="11">
         <v>44132</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="L29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="10">
         <v>38.5</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="11">
         <v>44446</v>
       </c>
       <c r="R29" s="3" t="s">
@@ -3116,18 +3078,18 @@
         <v>27</v>
       </c>
       <c r="U29" s="4"/>
-      <c r="V29" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W29" s="10">
+      <c r="V29" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" s="8">
         <v>44536</v>
       </c>
-      <c r="X29" s="10">
+      <c r="X29" s="8">
         <v>44537</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA29" s="4"/>
     </row>
@@ -3139,50 +3101,48 @@
         <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="15">
+        <v>129</v>
+      </c>
+      <c r="D30" s="14">
         <v>201990</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="8">
         <v>44317</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K30" s="12">
+        <v>148</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="11">
         <v>44133</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="11" t="s">
+      <c r="L30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <v>38</v>
       </c>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q30" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q30" s="11"/>
       <c r="R30" s="3" t="s">
         <v>27</v>
       </c>
@@ -3191,18 +3151,12 @@
         <v>27</v>
       </c>
       <c r="U30" s="4"/>
-      <c r="V30" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W30" s="10">
-        <v>44537</v>
-      </c>
-      <c r="X30" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA30" s="4"/>
     </row>
@@ -3214,16 +3168,16 @@
         <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="15">
+        <v>129</v>
+      </c>
+      <c r="D31" s="14">
         <v>201990</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="8">
         <v>44317</v>
@@ -3231,31 +3185,31 @@
       <c r="H31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="12">
+      <c r="I31" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="11">
         <v>44134</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="11" t="s">
+      <c r="L31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <v>38.6</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="Q31" s="11">
         <v>44446</v>
       </c>
       <c r="R31" s="3" t="s">
@@ -3266,18 +3220,18 @@
         <v>27</v>
       </c>
       <c r="U31" s="4"/>
-      <c r="V31" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W31" s="10">
+      <c r="V31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W31" s="8">
         <v>44537</v>
       </c>
-      <c r="X31" s="10">
+      <c r="X31" s="8">
         <v>44537</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA31" s="4"/>
     </row>
@@ -3289,50 +3243,48 @@
         <v>44</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="15">
+        <v>128</v>
+      </c>
+      <c r="D32" s="14">
         <v>201990</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="8">
         <v>44317</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="12">
+      <c r="J32" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="11">
         <v>44106</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" s="11">
+      <c r="L32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="10">
         <v>38.5</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q32" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q32" s="11"/>
       <c r="R32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3341,18 +3293,12 @@
         <v>27</v>
       </c>
       <c r="U32" s="4"/>
-      <c r="V32" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W32" s="10">
-        <v>44537</v>
-      </c>
-      <c r="X32" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="4"/>
     </row>
@@ -3364,16 +3310,16 @@
         <v>44</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="15">
+        <v>128</v>
+      </c>
+      <c r="D33" s="14">
         <v>201990</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="8">
         <v>44317</v>
@@ -3381,31 +3327,31 @@
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="12">
+      <c r="J33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="11">
         <v>44107</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="11">
+      <c r="L33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="10">
         <v>38.5</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="11">
         <v>44446</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -3416,18 +3362,18 @@
         <v>27</v>
       </c>
       <c r="U33" s="4"/>
-      <c r="V33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W33" s="10">
+      <c r="V33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W33" s="8">
         <v>44537</v>
       </c>
-      <c r="X33" s="10">
+      <c r="X33" s="8">
         <v>44537</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA33" s="4"/>
     </row>
@@ -3439,16 +3385,16 @@
         <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="15">
+        <v>128</v>
+      </c>
+      <c r="D34" s="14">
         <v>201990</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="8">
         <v>44317</v>
@@ -3456,31 +3402,31 @@
       <c r="H34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="12">
+      <c r="I34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="11">
         <v>44108</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="11" t="s">
+      <c r="L34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>38</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="11">
         <v>44444</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -3491,18 +3437,18 @@
         <v>27</v>
       </c>
       <c r="U34" s="4"/>
-      <c r="V34" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W34" s="10">
+      <c r="V34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W34" s="8">
         <v>44535</v>
       </c>
-      <c r="X34" s="10">
+      <c r="X34" s="8">
         <v>44535</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA34" s="4"/>
     </row>
@@ -3514,16 +3460,16 @@
         <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="15">
+        <v>128</v>
+      </c>
+      <c r="D35" s="14">
         <v>201990</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="8">
         <v>44317</v>
@@ -3531,31 +3477,31 @@
       <c r="H35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K35" s="12">
+      <c r="I35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="11">
         <v>44109</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" s="11" t="s">
+      <c r="L35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="10">
         <v>38.6</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="11">
         <v>44444</v>
       </c>
       <c r="R35" s="3" t="s">
@@ -3566,18 +3512,18 @@
         <v>27</v>
       </c>
       <c r="U35" s="4"/>
-      <c r="V35" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W35" s="10">
+      <c r="V35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W35" s="8">
         <v>44535</v>
       </c>
-      <c r="X35" s="10">
+      <c r="X35" s="8">
         <v>44535</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA35" s="4"/>
     </row>
@@ -3589,16 +3535,16 @@
         <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="15">
+        <v>128</v>
+      </c>
+      <c r="D36" s="14">
         <v>201990</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="8">
         <v>44317</v>
@@ -3606,31 +3552,31 @@
       <c r="H36" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K36" s="12">
+      <c r="I36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="11">
         <v>44110</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="L36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="10">
         <v>38</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="11">
         <v>44444</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -3641,18 +3587,18 @@
         <v>27</v>
       </c>
       <c r="U36" s="4"/>
-      <c r="V36" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W36" s="10">
+      <c r="V36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W36" s="8">
         <v>44535</v>
       </c>
-      <c r="X36" s="10">
+      <c r="X36" s="8">
         <v>44535</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA36" s="4"/>
     </row>
@@ -3664,50 +3610,48 @@
         <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="15">
+        <v>128</v>
+      </c>
+      <c r="D37" s="14">
         <v>201990</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="8">
         <v>44317</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" s="12">
+        <v>148</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="11">
         <v>44111</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" s="11" t="s">
+      <c r="L37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <v>38.5</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="12">
-        <v>44444</v>
-      </c>
+      <c r="Q37" s="11"/>
       <c r="R37" s="3" t="s">
         <v>27</v>
       </c>
@@ -3716,18 +3660,12 @@
         <v>27</v>
       </c>
       <c r="U37" s="4"/>
-      <c r="V37" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W37" s="10">
-        <v>44535</v>
-      </c>
-      <c r="X37" s="10">
-        <v>44535</v>
-      </c>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA37" s="4"/>
     </row>
@@ -3739,50 +3677,48 @@
         <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="15">
+        <v>128</v>
+      </c>
+      <c r="D38" s="14">
         <v>201990</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="8">
         <v>44317</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="12">
+        <v>148</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" s="11">
         <v>44112</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="10">
         <v>38.5</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q38" s="12">
-        <v>44445</v>
-      </c>
+      <c r="Q38" s="11"/>
       <c r="R38" s="3" t="s">
         <v>27</v>
       </c>
@@ -3791,18 +3727,12 @@
         <v>27</v>
       </c>
       <c r="U38" s="4"/>
-      <c r="V38" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W38" s="10">
-        <v>44533</v>
-      </c>
-      <c r="X38" s="10">
-        <v>44536</v>
-      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA38" s="4"/>
     </row>
@@ -3814,16 +3744,16 @@
         <v>44</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="15">
+        <v>128</v>
+      </c>
+      <c r="D39" s="14">
         <v>201990</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="8">
         <v>44317</v>
@@ -3831,31 +3761,31 @@
       <c r="H39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="12">
+      <c r="I39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="11">
         <v>44113</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="10">
         <v>38</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <v>44445</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -3866,18 +3796,18 @@
         <v>27</v>
       </c>
       <c r="U39" s="4"/>
-      <c r="V39" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W39" s="10">
+      <c r="V39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W39" s="8">
         <v>44534</v>
       </c>
-      <c r="X39" s="10">
+      <c r="X39" s="8">
         <v>44536</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA39" s="4"/>
     </row>
@@ -3889,50 +3819,48 @@
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="15">
+        <v>128</v>
+      </c>
+      <c r="D40" s="14">
         <v>201990</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G40" s="8">
         <v>44317</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="12">
+        <v>148</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="11">
         <v>44114</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="11" t="s">
+      <c r="L40" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="10">
         <v>38.6</v>
       </c>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="12">
-        <v>44445</v>
-      </c>
+      <c r="Q40" s="11"/>
       <c r="R40" s="3" t="s">
         <v>27</v>
       </c>
@@ -3941,18 +3869,12 @@
         <v>27</v>
       </c>
       <c r="U40" s="4"/>
-      <c r="V40" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W40" s="10">
-        <v>44535</v>
-      </c>
-      <c r="X40" s="10">
-        <v>44536</v>
-      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA40" s="4"/>
     </row>
@@ -3964,16 +3886,16 @@
         <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="15">
+        <v>128</v>
+      </c>
+      <c r="D41" s="14">
         <v>201990</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="8">
         <v>44317</v>
@@ -3981,31 +3903,31 @@
       <c r="H41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K41" s="12">
+      <c r="I41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" s="11">
         <v>44115</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M41" s="11" t="s">
+      <c r="L41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="10">
         <v>38</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="11">
         <v>44445</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -4016,18 +3938,18 @@
         <v>27</v>
       </c>
       <c r="U41" s="4"/>
-      <c r="V41" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W41" s="10">
+      <c r="V41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W41" s="8">
         <v>44536</v>
       </c>
-      <c r="X41" s="10">
+      <c r="X41" s="8">
         <v>44536</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA41" s="4"/>
     </row>
@@ -4039,50 +3961,48 @@
         <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="15">
+        <v>128</v>
+      </c>
+      <c r="D42" s="14">
         <v>201990</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="8">
         <v>44348</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="12">
+        <v>148</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="11">
         <v>44116</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="11">
+      <c r="L42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="10">
         <v>38.5</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q42" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q42" s="11"/>
       <c r="R42" s="3" t="s">
         <v>27</v>
       </c>
@@ -4091,18 +4011,12 @@
         <v>27</v>
       </c>
       <c r="U42" s="4"/>
-      <c r="V42" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W42" s="10">
-        <v>44537</v>
-      </c>
-      <c r="X42" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA42" s="4"/>
     </row>
@@ -4114,16 +4028,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="15">
+        <v>129</v>
+      </c>
+      <c r="D43" s="14">
         <v>201990</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="8">
         <v>44348</v>
@@ -4131,31 +4045,31 @@
       <c r="H43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" s="12">
+      <c r="I43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="11">
         <v>44117</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="11" t="s">
+      <c r="L43" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="10">
         <v>38.5</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="11">
         <v>44446</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -4166,18 +4080,18 @@
         <v>27</v>
       </c>
       <c r="U43" s="4"/>
-      <c r="V43" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W43" s="10">
+      <c r="V43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W43" s="8">
         <v>44537</v>
       </c>
-      <c r="X43" s="10">
+      <c r="X43" s="8">
         <v>44537</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA43" s="4"/>
     </row>
@@ -4189,16 +4103,16 @@
         <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="15">
+        <v>129</v>
+      </c>
+      <c r="D44" s="14">
         <v>201990</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="8">
         <v>44348</v>
@@ -4206,31 +4120,31 @@
       <c r="H44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" s="12">
+      <c r="I44" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="11">
         <v>44118</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="11" t="s">
+      <c r="L44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="10">
         <v>38</v>
       </c>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="11">
         <v>44446</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -4241,18 +4155,18 @@
         <v>27</v>
       </c>
       <c r="U44" s="4"/>
-      <c r="V44" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W44" s="10">
+      <c r="V44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W44" s="8">
         <v>44537</v>
       </c>
-      <c r="X44" s="10">
+      <c r="X44" s="8">
         <v>44537</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA44" s="4"/>
     </row>
@@ -4264,16 +4178,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="15">
+        <v>129</v>
+      </c>
+      <c r="D45" s="14">
         <v>201990</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" s="8">
         <v>44348</v>
@@ -4281,31 +4195,31 @@
       <c r="H45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K45" s="12">
+      <c r="I45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" s="11">
         <v>44119</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M45" s="11" t="s">
+      <c r="L45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="10">
         <v>38.6</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="11">
         <v>44446</v>
       </c>
       <c r="R45" s="3" t="s">
@@ -4316,18 +4230,18 @@
         <v>27</v>
       </c>
       <c r="U45" s="4"/>
-      <c r="V45" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W45" s="10">
+      <c r="V45" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W45" s="8">
         <v>44538</v>
       </c>
-      <c r="X45" s="10">
+      <c r="X45" s="8">
         <v>44537</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA45" s="4"/>
     </row>
@@ -4339,16 +4253,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="15">
+        <v>129</v>
+      </c>
+      <c r="D46" s="14">
         <v>201990</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="8">
         <v>44348</v>
@@ -4356,31 +4270,31 @@
       <c r="H46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" s="12">
+      <c r="I46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" s="11">
         <v>44120</v>
       </c>
-      <c r="L46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" s="11" t="s">
+      <c r="L46" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="10">
         <v>38</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>44446</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -4391,18 +4305,18 @@
         <v>27</v>
       </c>
       <c r="U46" s="4"/>
-      <c r="V46" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W46" s="10">
+      <c r="V46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W46" s="8">
         <v>44537</v>
       </c>
-      <c r="X46" s="10">
+      <c r="X46" s="8">
         <v>44537</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA46" s="4"/>
     </row>
@@ -4414,50 +4328,48 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="15">
+        <v>129</v>
+      </c>
+      <c r="D47" s="14">
         <v>201990</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="8">
         <v>44348</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="12">
+        <v>148</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="11">
         <v>44126</v>
       </c>
-      <c r="L47" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M47" s="11" t="s">
+      <c r="L47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="10">
         <v>38.5</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q47" s="12">
-        <v>44446</v>
-      </c>
+      <c r="Q47" s="11"/>
       <c r="R47" s="3" t="s">
         <v>27</v>
       </c>
@@ -4466,18 +4378,12 @@
         <v>27</v>
       </c>
       <c r="U47" s="4"/>
-      <c r="V47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="W47" s="10">
-        <v>44536</v>
-      </c>
-      <c r="X47" s="10">
-        <v>44537</v>
-      </c>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA47" s="4"/>
     </row>
@@ -4489,16 +4395,16 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="15">
+        <v>129</v>
+      </c>
+      <c r="D48" s="14">
         <v>201990</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="8">
         <v>44348</v>
@@ -4506,31 +4412,31 @@
       <c r="H48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K48" s="12">
+      <c r="I48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="11">
         <v>44127</v>
       </c>
-      <c r="L48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="11" t="s">
+      <c r="L48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="10">
         <v>38.5</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="11">
         <v>44446</v>
       </c>
       <c r="R48" s="3" t="s">
@@ -4541,18 +4447,18 @@
         <v>27</v>
       </c>
       <c r="U48" s="4"/>
-      <c r="V48" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W48" s="10">
+      <c r="V48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="W48" s="8">
         <v>44537</v>
       </c>
-      <c r="X48" s="10">
+      <c r="X48" s="8">
         <v>44537</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA48" s="4"/>
     </row>
@@ -4564,16 +4470,16 @@
         <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="15">
+        <v>129</v>
+      </c>
+      <c r="D49" s="14">
         <v>201990</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G49" s="8">
         <v>44348</v>
@@ -4581,31 +4487,31 @@
       <c r="H49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K49" s="12">
+      <c r="I49" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="11">
         <v>44128</v>
       </c>
-      <c r="L49" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" s="11" t="s">
+      <c r="L49" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="10">
         <v>38</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="11">
         <v>44446</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -4616,18 +4522,18 @@
         <v>27</v>
       </c>
       <c r="U49" s="4"/>
-      <c r="V49" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W49" s="10">
+      <c r="V49" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W49" s="8">
         <v>44537</v>
       </c>
-      <c r="X49" s="10">
+      <c r="X49" s="8">
         <v>44537</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA49" s="4"/>
     </row>
@@ -4639,50 +4545,48 @@
         <v>44</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="15">
+        <v>129</v>
+      </c>
+      <c r="D50" s="14">
         <v>201990</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="8">
         <v>44348</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" s="12">
+        <v>148</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K50" s="11">
         <v>44129</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M50" s="11" t="s">
+      <c r="L50" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="11">
+      <c r="N50" s="10">
         <v>38.6</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q50" s="12">
-        <v>44453</v>
-      </c>
+      <c r="Q50" s="11"/>
       <c r="R50" s="3" t="s">
         <v>27</v>
       </c>
@@ -4691,18 +4595,12 @@
         <v>27</v>
       </c>
       <c r="U50" s="4"/>
-      <c r="V50" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="W50" s="10">
-        <v>44544</v>
-      </c>
-      <c r="X50" s="10">
-        <v>44544</v>
-      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA50" s="4"/>
     </row>
@@ -4714,16 +4612,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="15">
+        <v>129</v>
+      </c>
+      <c r="D51" s="14">
         <v>201990</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G51" s="8">
         <v>44348</v>
@@ -4731,31 +4629,31 @@
       <c r="H51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="12">
+      <c r="I51" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="11">
         <v>44130</v>
       </c>
-      <c r="L51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="11" t="s">
+      <c r="L51" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="10">
         <v>38</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q51" s="11">
         <v>44453</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -4766,33 +4664,32 @@
         <v>27</v>
       </c>
       <c r="U51" s="4"/>
-      <c r="V51" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W51" s="10">
+      <c r="V51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="W51" s="8">
         <v>44544</v>
       </c>
-      <c r="X51" s="10">
+      <c r="X51" s="8">
         <v>44544</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA51" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA51"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations xWindow="804" yWindow="765" count="9">
     <dataValidation type="whole" showInputMessage="1" promptTitle="산란량 입력" prompt="산란량을 일 OO 개로 입력해 주세요." sqref="AA2:AA51"/>
     <dataValidation type="whole" operator="greaterThan" showInputMessage="1" promptTitle="크기 입력" prompt="크기를 OO cm로 입력해 주세요." sqref="I2 I4:I6 I9:I10 I50:I51 I12:I14 I16:I20 I30:I35 I48 I37:I38 I40:I41 I45:I46 I23:I24 I26:I28"/>
     <dataValidation type="whole" operator="greaterThan" showInputMessage="1" promptTitle="무게 입력" prompt="무게를 OO kg으로 입력해 주세요." sqref="J2:J14 J26:J28 J23:J24 J43:J51 J16:J20 J30:J41"/>
     <dataValidation type="whole" showInputMessage="1" promptTitle="섭취량 입력" prompt="섭취량을 OOg / ml로 입력해 주세요." sqref="L2 L6 L10 L14 L18 L22 L26 L30"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="활동량 입력" prompt="활동량을 '많음' 또는 '적음'으로 입력해 주세요." sqref="M2 M7 M12 M17 M22 M27 M36 M41 M46 M51"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="활동량 입력" prompt="활동량을 '많음' 또는 '적음'으로 입력해 주세요." sqref="M2 M7 M12 M17 M51 M27 M36 M41 M46"/>
     <dataValidation type="whole" operator="greaterThan" showInputMessage="1" promptTitle="온도 입력" prompt="온도를 숫자로 입력해 주세요." sqref="N2 N7 N12 N17 N22 N27 N36 N41 N46 N51"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="격리 상태 입력" prompt="격리 상태를 Y 또는 N으로 입력해 주세요." sqref="O2:P2 O10:P10 O18 P12 P22 P20 P30 O39:P39 O47 P41 P51 P49"/>
-    <dataValidation type="whole" showInputMessage="1" promptTitle="우유 생산량 입력" prompt="우유 생산량을 일 OO ml로 입력해 주세요." sqref="Y2:Y51"/>
+    <dataValidation type="whole" showInputMessage="1" promptTitle="우유 생산량 입력" prompt="우유 생산량을 일 OO ml로 입력해 주세요." sqref="Y2:Y51 V5:X5 V14:X14 V17:X17 V20:X20 V27:X27 V30:X30 V32:X32 V37:X38 V40:X40 V42:X42 V47:X47 V50:X50"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="폐사여부 입력" prompt="폐사여부를 Y 또는 N으로 입력해 주세요." sqref="Z2:Z51"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
+++ b/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="163">
   <si>
     <t>가축 종류</t>
   </si>
@@ -506,6 +506,59 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSF: 20-09-15, FMD : 20-09-15, PPV: 20-09-25</t>
+  </si>
+  <si>
+    <t>CSF: 20-09-25, FMD : 20-09-25</t>
+  </si>
+  <si>
+    <t>CSF: 20-10-15</t>
+  </si>
+  <si>
+    <t>CSF: 20-09-15, FMD : 20-09-15, PPV: 20-09-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSF: 20-09-25, FMD : 20-09-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSF: 20-09-25, FMD : 20-09-25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMD : 20-09-30/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMD : 20-09-30/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -941,8 +994,9 @@
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="2" customWidth="1"/>
     <col min="18" max="18" width="130" customWidth="1"/>
     <col min="19" max="19" width="100" customWidth="1"/>
     <col min="20" max="20" width="150" customWidth="1"/>
@@ -1088,7 +1142,9 @@
       <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1219,9 @@
       <c r="R3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1296,9 @@
       <c r="R4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="T4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1371,9 @@
       <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1380,7 +1442,9 @@
       <c r="R6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1519,9 @@
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1530,11 +1596,15 @@
       <c r="R8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="V8" s="8" t="s">
         <v>146</v>
       </c>
@@ -1605,11 +1675,15 @@
       <c r="R9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V9" s="8" t="s">
         <v>145</v>
       </c>
@@ -1680,11 +1754,15 @@
       <c r="R10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V10" s="8" t="s">
         <v>144</v>
       </c>
@@ -1755,7 +1833,9 @@
       <c r="R11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +1910,9 @@
       <c r="R12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="T12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1987,9 @@
       <c r="R13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="T13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1978,11 +2062,15 @@
       <c r="R14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -2047,11 +2135,15 @@
       <c r="R15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="4"/>
+      <c r="S15" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V15" s="8" t="s">
         <v>143</v>
       </c>
@@ -2122,7 +2214,9 @@
       <c r="R16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2195,11 +2289,15 @@
       <c r="R17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -2264,7 +2362,9 @@
       <c r="R18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2339,11 +2439,15 @@
       <c r="R19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="V19" s="8" t="s">
         <v>145</v>
       </c>
@@ -2412,7 +2516,9 @@
       <c r="R20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2481,11 +2587,15 @@
       <c r="R21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="U21" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="V21" s="8" t="s">
         <v>143</v>
       </c>
@@ -2556,11 +2666,15 @@
       <c r="R22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="4"/>
+      <c r="S22" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="U22" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="V22" s="8" t="s">
         <v>144</v>
       </c>
@@ -2631,7 +2745,9 @@
       <c r="R23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2706,11 +2822,15 @@
       <c r="R24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S24" s="4"/>
+      <c r="S24" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="U24" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V24" s="8" t="s">
         <v>145</v>
       </c>
@@ -2781,11 +2901,15 @@
       <c r="R25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="4"/>
+      <c r="S25" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="U25" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="V25" s="8" t="s">
         <v>146</v>
       </c>
@@ -2856,11 +2980,15 @@
       <c r="R26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V26" s="8" t="s">
         <v>145</v>
       </c>
@@ -2929,7 +3057,9 @@
       <c r="R27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2998,11 +3128,15 @@
       <c r="R28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="U28" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="V28" s="8" t="s">
         <v>143</v>
       </c>
@@ -3073,11 +3207,15 @@
       <c r="R29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="U29" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="V29" s="8" t="s">
         <v>146</v>
       </c>
@@ -3146,11 +3284,15 @@
       <c r="R30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="U30" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -3215,7 +3357,9 @@
       <c r="R31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T31" s="3" t="s">
         <v>27</v>
       </c>
@@ -3288,7 +3432,9 @@
       <c r="R32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S32" s="4"/>
+      <c r="S32" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3357,7 +3503,9 @@
       <c r="R33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T33" s="3" t="s">
         <v>27</v>
       </c>
@@ -3432,7 +3580,9 @@
       <c r="R34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S34" s="4"/>
+      <c r="S34" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T34" s="3" t="s">
         <v>27</v>
       </c>
@@ -3507,7 +3657,9 @@
       <c r="R35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S35" s="4"/>
+      <c r="S35" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="T35" s="3" t="s">
         <v>27</v>
       </c>
@@ -3582,7 +3734,9 @@
       <c r="R36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S36" s="4"/>
+      <c r="S36" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T36" s="3" t="s">
         <v>27</v>
       </c>
@@ -3655,7 +3809,9 @@
       <c r="R37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S37" s="4"/>
+      <c r="S37" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T37" s="3" t="s">
         <v>27</v>
       </c>
@@ -3722,7 +3878,9 @@
       <c r="R38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S38" s="4"/>
+      <c r="S38" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T38" s="3" t="s">
         <v>27</v>
       </c>
@@ -3791,7 +3949,9 @@
       <c r="R39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S39" s="4"/>
+      <c r="S39" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T39" s="3" t="s">
         <v>27</v>
       </c>
@@ -3864,11 +4024,15 @@
       <c r="R40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="4"/>
+      <c r="S40" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U40" s="4"/>
+      <c r="U40" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -3933,11 +4097,15 @@
       <c r="R41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S41" s="4"/>
+      <c r="S41" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U41" s="4"/>
+      <c r="U41" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="V41" s="8" t="s">
         <v>143</v>
       </c>
@@ -4006,11 +4174,15 @@
       <c r="R42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S42" s="4"/>
+      <c r="S42" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U42" s="4"/>
+      <c r="U42" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -4075,11 +4247,15 @@
       <c r="R43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U43" s="4"/>
+      <c r="U43" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V43" s="8" t="s">
         <v>146</v>
       </c>
@@ -4150,7 +4326,9 @@
       <c r="R44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S44" s="4"/>
+      <c r="S44" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T44" s="3" t="s">
         <v>27</v>
       </c>
@@ -4225,7 +4403,9 @@
       <c r="R45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="T45" s="3" t="s">
         <v>27</v>
       </c>
@@ -4300,7 +4480,9 @@
       <c r="R46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T46" s="3" t="s">
         <v>27</v>
       </c>
@@ -4373,11 +4555,15 @@
       <c r="R47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S47" s="4"/>
+      <c r="S47" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U47" s="4"/>
+      <c r="U47" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
@@ -4442,7 +4628,9 @@
       <c r="R48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S48" s="4"/>
+      <c r="S48" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T48" s="3" t="s">
         <v>27</v>
       </c>
@@ -4517,11 +4705,15 @@
       <c r="R49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="4"/>
+      <c r="S49" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U49" s="4"/>
+      <c r="U49" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="V49" s="8" t="s">
         <v>144</v>
       </c>
@@ -4590,11 +4782,15 @@
       <c r="R50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S50" s="4"/>
+      <c r="S50" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U50" s="4"/>
+      <c r="U50" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
@@ -4659,11 +4855,15 @@
       <c r="R51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S51" s="4"/>
+      <c r="S51" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="T51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U51" s="4"/>
+      <c r="U51" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="V51" s="8" t="s">
         <v>144</v>
       </c>
@@ -4693,6 +4893,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" promptTitle="폐사여부 입력" prompt="폐사여부를 Y 또는 N으로 입력해 주세요." sqref="Z2:Z51"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
+++ b/Final_Project_GM/Pig/양돈_박근모_240906.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="171">
   <si>
     <t>가축 종류</t>
   </si>
@@ -70,16 +70,7 @@
     <t>임신 일자</t>
   </si>
   <si>
-    <t>백신 정보: (양식 예 : 백신A(2023-01-01); (여러 타입일 경우 ;필수) 백신B(2023-02-02)) 이런 방식으로 오른쪽 칸에 작성해주세요!</t>
-  </si>
-  <si>
     <t>백신 접종 데이터</t>
-  </si>
-  <si>
-    <t>질병 및 치료 정보: (양식 예 : ASF(2023-01-01/2023-01-02 치료); (여러 타입일 경우 ;필수) PRRS(2023-01-01/2023-01-02 치료)) 오른쪽 칸에 작성해주세요!</t>
-  </si>
-  <si>
-    <t>질병 및 치료 데이터</t>
   </si>
   <si>
     <t>출산 횟수</t>
@@ -509,56 +500,86 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CSF: 20-09-15, FMD : 20-09-15, PPV: 20-09-25</t>
-  </si>
-  <si>
-    <t>CSF: 20-09-25, FMD : 20-09-25</t>
-  </si>
-  <si>
-    <t>CSF: 20-10-15</t>
-  </si>
-  <si>
-    <t>CSF: 20-09-15, FMD : 20-09-15, PPV: 20-09-25</t>
+    <t>CSF ((20-09-15)); FMD  ((20-09-15)); PPV (20-09-25)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-15); FMD  (20-09-15); PPV (20-09-25)</t>
+  </si>
+  <si>
+    <t>CSF (20-10-15)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PPV: 20-09-25/ 치료</t>
+    <t>CSF (20-09-25); FMD (20-09-26)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-27)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-28)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-29)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-30)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-31)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-32)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-33)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-25); FMD (20-09-34)</t>
+  </si>
+  <si>
+    <t>CSF (20-09-15); FMD (20-09-15); PPV (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CSF: 20-09-25, FMD : 20-09-25</t>
+    <t>CSF (20-09-15); FMD (20-09-15); PPV (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CSF: 20-09-25, FMD : 20-09-25</t>
+    <t>CSF (20-09-15); FMD (20-09-15); PPV (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PPV: 20-09-25/ 치료</t>
+    <t>CSF (20-09-15); FMD (20-09-15); PPV (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FMD : 20-09-30/ 치료</t>
+    <t>CSF (20-09-25); FMD (20-09-25)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FMD : 20-09-30/ 치료</t>
+    <t>백신 정보((양식 예 (백신A(2023-01-01); (여러 타입일 경우 ;필수) 백신B(2023-02-02)) 이런 방식으로 오른쪽 칸에 작성해주세요!</t>
+  </si>
+  <si>
+    <t>질병 및 치료) 정보((양식 예 (ASF(2023-01-01/2023-01-02 치료)); (여러 타입일 경우 ;필수) PRRS(2023-01-01/2023-01-02 치료))) 오른쪽 칸에 작성해주세요!</t>
+  </si>
+  <si>
+    <t>질병 및 치료) 데이터</t>
+  </si>
+  <si>
+    <t>PPV(20-09-25/ 치료)</t>
+  </si>
+  <si>
+    <t>FMD (20-09-30/ 치료)</t>
+  </si>
+  <si>
+    <t>PPV(20-09-25/ 치료); FMD (20-09-30/ 치료)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PPV: 20-09-25/ 치료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPV: 20-09-25/ 치료, FMD : 20-09-30/ 치료</t>
+    <t>PPV(20-09-25/ 치료); FMD (20-09-30/ 치료)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -983,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="U22" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,100 +1078,100 @@
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AA1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="14">
         <v>201990</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G2" s="8">
         <v>44228</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K2" s="11">
         <v>44105</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N2" s="10">
         <v>38</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="11">
         <v>44446</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W2" s="8">
         <v>44537</v>
@@ -1160,74 +1181,74 @@
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D3" s="14">
         <v>201990</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G3" s="8">
         <v>44228</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K3" s="11">
         <v>44106</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N3" s="10">
         <v>38.5</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="11">
         <v>44446</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W3" s="8">
         <v>44538</v>
@@ -1237,74 +1258,74 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="14">
         <v>201990</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G4" s="8">
         <v>44228</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K4" s="11">
         <v>44107</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N4" s="10">
         <v>38.5</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="11">
         <v>44446</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W4" s="8">
         <v>44539</v>
@@ -1314,68 +1335,68 @@
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="14">
         <v>201990</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G5" s="8">
         <v>44228</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5" s="11">
         <v>44108</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N5" s="10">
         <v>38</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -1383,74 +1404,74 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="14">
         <v>201990</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G6" s="8">
         <v>44228</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K6" s="11">
         <v>44109</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N6" s="10">
         <v>38.6</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="11">
         <v>44458</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W6" s="8">
         <v>44545</v>
@@ -1460,74 +1481,74 @@
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="14">
         <v>201990</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="8">
         <v>44228</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" s="11">
         <v>44110</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N7" s="10">
         <v>38</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="11">
         <v>44458</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W7" s="8">
         <v>44546</v>
@@ -1537,76 +1558,76 @@
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D8" s="14">
         <v>201990</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G8" s="8">
         <v>44228</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" s="11">
         <v>44111</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N8" s="10">
         <v>38.5</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="11">
         <v>44458</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>150</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W8" s="8">
         <v>44547</v>
@@ -1616,76 +1637,76 @@
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="14">
         <v>201990</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="8">
         <v>44228</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K9" s="11">
         <v>44112</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N9" s="10">
         <v>38.5</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="11">
         <v>44458</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W9" s="8">
         <v>44549</v>
@@ -1695,76 +1716,76 @@
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="14">
         <v>201990</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G10" s="8">
         <v>44228</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K10" s="11">
         <v>44113</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10" s="10">
         <v>38</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="11">
         <v>44457</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W10" s="8">
         <v>44548</v>
@@ -1774,74 +1795,74 @@
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="14">
         <v>201990</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G11" s="8">
         <v>44228</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K11" s="11">
         <v>44114</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N11" s="10">
         <v>38.6</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="11">
         <v>44457</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W11" s="8">
         <v>44548</v>
@@ -1851,74 +1872,74 @@
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="14">
         <v>201990</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G12" s="8">
         <v>44228</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K12" s="11">
         <v>44115</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12" s="10">
         <v>38</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="11">
         <v>44457</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W12" s="8">
         <v>44547</v>
@@ -1928,74 +1949,74 @@
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="14">
         <v>201990</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G13" s="8">
         <v>44228</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K13" s="11">
         <v>44116</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N13" s="10">
         <v>38.5</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="11">
         <v>44457</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W13" s="8">
         <v>44548</v>
@@ -2005,147 +2026,147 @@
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="14">
         <v>201990</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G14" s="8">
         <v>44228</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K14" s="11">
         <v>44117</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N14" s="10">
         <v>38.5</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="14">
         <v>201990</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G15" s="8">
         <v>44228</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K15" s="11">
         <v>44118</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N15" s="10">
         <v>38</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="11">
         <v>44453</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W15" s="8">
         <v>44545</v>
@@ -2155,74 +2176,74 @@
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D16" s="14">
         <v>201990</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" s="8">
         <v>44228</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K16" s="11">
         <v>44119</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N16" s="10">
         <v>38.6</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="11">
         <v>44453</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W16" s="8">
         <v>44543</v>
@@ -2232,145 +2253,145 @@
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="14">
         <v>201990</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G17" s="8">
         <v>44228</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K17" s="11">
         <v>44120</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N17" s="10">
         <v>38</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D18" s="14">
         <v>201990</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="8">
         <v>44228</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K18" s="11">
         <v>44121</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18" s="10">
         <v>38.5</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="11">
         <v>44441</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W18" s="8">
         <v>44532</v>
@@ -2380,76 +2401,76 @@
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" s="14">
         <v>201990</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="8">
         <v>44228</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K19" s="11">
         <v>44122</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N19" s="10">
         <v>38.5</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="11">
         <v>44441</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W19" s="8">
         <v>44532</v>
@@ -2459,68 +2480,68 @@
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D20" s="14">
         <v>201990</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G20" s="8">
         <v>44228</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K20" s="11">
         <v>44123</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20" s="10">
         <v>38</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -2528,76 +2549,76 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D21" s="14">
         <v>201990</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G21" s="8">
         <v>44228</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K21" s="11">
         <v>44124</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N21" s="10">
         <v>38.6</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="11">
         <v>44441</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W21" s="8">
         <v>44532</v>
@@ -2607,76 +2628,76 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA21" s="4"/>
     </row>
     <row r="22" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D22" s="14">
         <v>201990</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="8">
         <v>44228</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K22" s="11">
         <v>44125</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N22" s="10">
         <v>38</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="11">
         <v>44445</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W22" s="8">
         <v>44545</v>
@@ -2686,74 +2707,74 @@
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA22" s="4"/>
     </row>
     <row r="23" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D23" s="14">
         <v>201990</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G23" s="8">
         <v>44317</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K23" s="11">
         <v>44126</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N23" s="10">
         <v>38.5</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="11">
         <v>44445</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W23" s="8">
         <v>44535</v>
@@ -2763,76 +2784,76 @@
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" s="14">
         <v>201990</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G24" s="8">
         <v>44317</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K24" s="11">
         <v>44127</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24" s="10">
         <v>38.5</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="11">
         <v>44445</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W24" s="8">
         <v>44536</v>
@@ -2842,76 +2863,76 @@
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D25" s="14">
         <v>201990</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G25" s="8">
         <v>44317</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K25" s="11">
         <v>44128</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N25" s="10">
         <v>38</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="11">
         <v>44445</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W25" s="8">
         <v>44536</v>
@@ -2921,76 +2942,76 @@
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="14">
         <v>201990</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26" s="8">
         <v>44317</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K26" s="11">
         <v>44129</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N26" s="10">
         <v>38.6</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="11">
         <v>44446</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W26" s="8">
         <v>44537</v>
@@ -3000,68 +3021,68 @@
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D27" s="14">
         <v>201990</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G27" s="8">
         <v>44317</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K27" s="11">
         <v>44130</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N27" s="10">
         <v>38</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -3069,76 +3090,76 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28" s="14">
         <v>201990</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G28" s="8">
         <v>44317</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K28" s="11">
         <v>44131</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N28" s="10">
         <v>38.5</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q28" s="11">
         <v>44446</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W28" s="8">
         <v>44535</v>
@@ -3148,76 +3169,76 @@
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="14">
         <v>201990</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G29" s="8">
         <v>44317</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K29" s="11">
         <v>44132</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N29" s="10">
         <v>38.5</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="11">
         <v>44446</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W29" s="8">
         <v>44536</v>
@@ -3227,145 +3248,145 @@
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D30" s="14">
         <v>201990</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G30" s="8">
         <v>44317</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K30" s="11">
         <v>44133</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N30" s="10">
         <v>38</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D31" s="14">
         <v>201990</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G31" s="8">
         <v>44317</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K31" s="11">
         <v>44134</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N31" s="10">
         <v>38.6</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="11">
         <v>44446</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W31" s="8">
         <v>44537</v>
@@ -3375,68 +3396,68 @@
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D32" s="14">
         <v>201990</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G32" s="8">
         <v>44317</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K32" s="11">
         <v>44106</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N32" s="10">
         <v>38.5</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3444,74 +3465,74 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" s="14">
         <v>201990</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G33" s="8">
         <v>44317</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K33" s="11">
         <v>44107</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N33" s="10">
         <v>38.5</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q33" s="11">
         <v>44446</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W33" s="8">
         <v>44537</v>
@@ -3521,74 +3542,74 @@
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA33" s="4"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D34" s="14">
         <v>201990</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G34" s="8">
         <v>44317</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K34" s="11">
         <v>44108</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N34" s="10">
         <v>38</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="11">
         <v>44444</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W34" s="8">
         <v>44535</v>
@@ -3598,74 +3619,74 @@
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA34" s="4"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" s="14">
         <v>201990</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G35" s="8">
         <v>44317</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K35" s="11">
         <v>44109</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N35" s="10">
         <v>38.6</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="11">
         <v>44444</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W35" s="8">
         <v>44535</v>
@@ -3675,74 +3696,74 @@
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA35" s="4"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D36" s="14">
         <v>201990</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G36" s="8">
         <v>44317</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K36" s="11">
         <v>44110</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N36" s="10">
         <v>38</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="11">
         <v>44444</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W36" s="8">
         <v>44535</v>
@@ -3752,68 +3773,68 @@
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA36" s="4"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D37" s="14">
         <v>201990</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G37" s="8">
         <v>44317</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K37" s="11">
         <v>44111</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N37" s="10">
         <v>38.5</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>150</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -3821,68 +3842,68 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" s="14">
         <v>201990</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G38" s="8">
         <v>44317</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K38" s="11">
         <v>44112</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N38" s="10">
         <v>38.5</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -3890,74 +3911,74 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D39" s="14">
         <v>201990</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G39" s="8">
         <v>44317</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K39" s="11">
         <v>44113</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N39" s="10">
         <v>38</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="11">
         <v>44445</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W39" s="8">
         <v>44534</v>
@@ -3967,147 +3988,147 @@
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="14">
         <v>201990</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" s="8">
         <v>44317</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K40" s="11">
         <v>44114</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N40" s="10">
         <v>38.6</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="14">
         <v>201990</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G41" s="8">
         <v>44317</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K41" s="11">
         <v>44115</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N41" s="10">
         <v>38</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q41" s="11">
         <v>44445</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W41" s="8">
         <v>44536</v>
@@ -4117,147 +4138,147 @@
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="14">
         <v>201990</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G42" s="8">
         <v>44348</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K42" s="11">
         <v>44116</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N42" s="10">
         <v>38.5</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="14">
         <v>201990</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G43" s="8">
         <v>44348</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K43" s="11">
         <v>44117</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N43" s="10">
         <v>38.5</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q43" s="11">
         <v>44446</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W43" s="8">
         <v>44537</v>
@@ -4267,74 +4288,74 @@
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="14">
         <v>201990</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G44" s="8">
         <v>44348</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K44" s="11">
         <v>44118</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N44" s="10">
         <v>38</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q44" s="11">
         <v>44446</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W44" s="8">
         <v>44537</v>
@@ -4344,74 +4365,74 @@
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D45" s="14">
         <v>201990</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G45" s="8">
         <v>44348</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K45" s="11">
         <v>44119</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N45" s="10">
         <v>38.6</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q45" s="11">
         <v>44446</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W45" s="8">
         <v>44538</v>
@@ -4421,74 +4442,74 @@
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D46" s="14">
         <v>201990</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G46" s="8">
         <v>44348</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K46" s="11">
         <v>44120</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N46" s="10">
         <v>38</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q46" s="11">
         <v>44446</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W46" s="8">
         <v>44537</v>
@@ -4498,145 +4519,145 @@
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D47" s="14">
         <v>201990</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G47" s="8">
         <v>44348</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K47" s="11">
         <v>44126</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N47" s="10">
         <v>38.5</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D48" s="14">
         <v>201990</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G48" s="8">
         <v>44348</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K48" s="11">
         <v>44127</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N48" s="10">
         <v>38.5</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P48" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q48" s="11">
         <v>44446</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W48" s="8">
         <v>44537</v>
@@ -4646,76 +4667,76 @@
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" s="14">
         <v>201990</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="G49" s="8">
         <v>44348</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K49" s="11">
         <v>44128</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N49" s="10">
         <v>38</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q49" s="11">
         <v>44446</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W49" s="8">
         <v>44537</v>
@@ -4725,147 +4746,147 @@
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D50" s="14">
         <v>201990</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G50" s="8">
         <v>44348</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K50" s="11">
         <v>44129</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N50" s="10">
         <v>38.6</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="14">
         <v>201990</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G51" s="8">
         <v>44348</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K51" s="11">
         <v>44130</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N51" s="10">
         <v>38</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q51" s="11">
         <v>44453</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="W51" s="8">
         <v>44544</v>
@@ -4875,7 +4896,7 @@
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AA51" s="4"/>
     </row>
